--- a/biology/Zoologie/Aspidontus/Aspidontus.xlsx
+++ b/biology/Zoologie/Aspidontus/Aspidontus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aspidontus, la « blennie faux-nettoyeur », est un genre de poissons marins qui regroupe plusieurs espèces de la famille des Blenniidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces espèces ont pour particularité de mimer la livrée et le comportement des labres nettoyeurs comme Labroides dimidiatus, mais mordent leurs « clients » au lieu de les nettoyer. 
 Les trois espèces se rencontrent dans l'Indo-Pacifique tropical, en milieu principalement corallien. 
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (15 avril 2016)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (15 avril 2016) :
 Aspidontus dussumieri (Valenciennes, 1836)
 Aspidontus taeniatus Quoy &amp; Gaimard, 1834
 Aspidontus tractus Fowler, 1903
